--- a/biology/Zoologie/Actinopterygii_(classification_phylogénétique)/Actinopterygii_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Actinopterygii_(classification_phylogénétique)/Actinopterygii_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Actinoptérygiens ou « poissons à nageoires rayonnées »
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -722,7 +736,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -740,7 +754,9 @@
           <t>Débat scientifique relatif à la phylogénie des Actinopterygii</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence des Sarcoptérygiens, leur groupe-frère, tous les Actinoptérygiens sont des poissons ! En leur sein, la monophylie des Téléostéens n'est pas remise en question, mais les deux autres groupes classiques ont éclaté. 
 Les Chondrostéens ont perdu les Polyptériformes, qu'il a même été question de rapprocher des Sarcoptérygiens, mais cette hypothèse est aujourd'hui abandonnée ; les Polyptères semblent être simplement le groupe-frère de tous les autres Actinoptérygiens. Il n'y a par contre pas de consensus sur les Holostéens. Les premières analyses cladistiques les ont reconnus comme paraphylétiques (cf. cladogramme ci-dessus), mais ceci semble de moins en moins sûr (cf. G. Orti). Certains considèrent les Chondrostéens s.s. et les Holostéens comme formant un clade monophylétique, groupe-frère des Téléostéens.
@@ -755,7 +771,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -775,14 +791,86 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Guillermo Ortí et Chenhong Li : « Chapter 1: Phylogeny and Classification », in Reproductive Biology and Phylogeny of Fishes (Agnathans and Bony Fishes). Phylogeny, Reproductive System, Viviparity, Spermatozoa, B.M.G. Jamieson éditeur, Science Publishers (Reproductive Biology and Phylogeny, vol. 8 A), Enfield (New Hampshire), 2009,  (ISBN 978-1-57808-580-4)
-Autres sources bibliographiques
-Sources internet
-Fish Index
-Guillermo Ortí : Recent advances in molecular phylogenies of actinopterygian fishes
-Liens internes
-Actinopterygii
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Guillermo Ortí et Chenhong Li : « Chapter 1: Phylogeny and Classification », in Reproductive Biology and Phylogeny of Fishes (Agnathans and Bony Fishes). Phylogeny, Reproductive System, Viviparity, Spermatozoa, B.M.G. Jamieson éditeur, Science Publishers (Reproductive Biology and Phylogeny, vol. 8 A), Enfield (New Hampshire), 2009,  (ISBN 978-1-57808-580-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fish Index
+Guillermo Ortí : Recent advances in molecular phylogenies of actinopterygian fishes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Actinopterygii_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Actinopterygii_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinopterygii
 Actinopterygii (classification classique)
 Arbre phylogénétique
 Le vivant (classification phylogénétique)
